--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.231909</v>
+        <v>0.5273236666666667</v>
       </c>
       <c r="N2">
-        <v>24.695727</v>
+        <v>1.581971</v>
       </c>
       <c r="O2">
-        <v>0.6819745823584403</v>
+        <v>0.1756607078989806</v>
       </c>
       <c r="P2">
-        <v>0.6819745823584403</v>
+        <v>0.1756607078989806</v>
       </c>
       <c r="Q2">
-        <v>179.8653073350513</v>
+        <v>3.272578760962889</v>
       </c>
       <c r="R2">
-        <v>1618.787766015462</v>
+        <v>29.45320884866601</v>
       </c>
       <c r="S2">
-        <v>0.03423525286539057</v>
+        <v>0.002637939082102384</v>
       </c>
       <c r="T2">
-        <v>0.03423525286539057</v>
+        <v>0.002637939082102384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.4171</v>
       </c>
       <c r="O3">
-        <v>0.1219785887548671</v>
+        <v>0.4904710091781626</v>
       </c>
       <c r="P3">
-        <v>0.121978588754867</v>
+        <v>0.4904710091781627</v>
       </c>
       <c r="Q3">
-        <v>32.17087105917778</v>
+        <v>9.137530109622222</v>
       </c>
       <c r="R3">
-        <v>289.5378395326</v>
+        <v>82.2377709866</v>
       </c>
       <c r="S3">
-        <v>0.006123348198322596</v>
+        <v>0.007365521061735289</v>
       </c>
       <c r="T3">
-        <v>0.006123348198322594</v>
+        <v>0.007365521061735289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.366422</v>
+        <v>1.002254</v>
       </c>
       <c r="N4">
-        <v>7.099265999999998</v>
+        <v>3.006762</v>
       </c>
       <c r="O4">
-        <v>0.1960468288866926</v>
+        <v>0.3338682829228568</v>
       </c>
       <c r="P4">
-        <v>0.1960468288866926</v>
+        <v>0.3338682829228568</v>
       </c>
       <c r="Q4">
-        <v>51.70577326771065</v>
+        <v>6.220003691894666</v>
       </c>
       <c r="R4">
-        <v>465.3519594093959</v>
+        <v>55.980033227052</v>
       </c>
       <c r="S4">
-        <v>0.009841587845082262</v>
+        <v>0.005013780271813027</v>
       </c>
       <c r="T4">
-        <v>0.009841587845082258</v>
+        <v>0.005013780271813027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.231909</v>
+        <v>0.5273236666666667</v>
       </c>
       <c r="N5">
-        <v>24.695727</v>
+        <v>1.581971</v>
       </c>
       <c r="O5">
-        <v>0.6819745823584403</v>
+        <v>0.1756607078989806</v>
       </c>
       <c r="P5">
-        <v>0.6819745823584403</v>
+        <v>0.1756607078989806</v>
       </c>
       <c r="Q5">
-        <v>3169.7168960092</v>
+        <v>203.0472805152313</v>
       </c>
       <c r="R5">
-        <v>28527.4520640828</v>
+        <v>1827.425524637081</v>
       </c>
       <c r="S5">
-        <v>0.6033184556510012</v>
+        <v>0.1636710361794737</v>
       </c>
       <c r="T5">
-        <v>0.6033184556510012</v>
+        <v>0.1636710361794737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.4171</v>
       </c>
       <c r="O6">
-        <v>0.1219785887548671</v>
+        <v>0.4904710091781626</v>
       </c>
       <c r="P6">
-        <v>0.121978588754867</v>
+        <v>0.4904710091781627</v>
       </c>
       <c r="Q6">
         <v>566.9384222364556</v>
@@ -818,10 +818,10 @@
         <v>5102.4458001281</v>
       </c>
       <c r="S6">
-        <v>0.1079100830056972</v>
+        <v>0.4569940497697829</v>
       </c>
       <c r="T6">
-        <v>0.1079100830056972</v>
+        <v>0.4569940497697829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.366422</v>
+        <v>1.002254</v>
       </c>
       <c r="N7">
-        <v>7.099265999999998</v>
+        <v>3.006762</v>
       </c>
       <c r="O7">
-        <v>0.1960468288866926</v>
+        <v>0.3338682829228568</v>
       </c>
       <c r="P7">
-        <v>0.1960468288866926</v>
+        <v>0.3338682829228568</v>
       </c>
       <c r="Q7">
-        <v>911.1966369511472</v>
+        <v>385.9203786014647</v>
       </c>
       <c r="R7">
-        <v>8200.769732560326</v>
+        <v>3473.283407413182</v>
       </c>
       <c r="S7">
-        <v>0.1734355987728428</v>
+        <v>0.3110801981105005</v>
       </c>
       <c r="T7">
-        <v>0.1734355987728427</v>
+        <v>0.3110801981105006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.231909</v>
+        <v>0.5273236666666667</v>
       </c>
       <c r="N8">
-        <v>24.695727</v>
+        <v>1.581971</v>
       </c>
       <c r="O8">
-        <v>0.6819745823584403</v>
+        <v>0.1756607078989806</v>
       </c>
       <c r="P8">
-        <v>0.6819745823584403</v>
+        <v>0.1756607078989806</v>
       </c>
       <c r="Q8">
-        <v>233.378563234411</v>
+        <v>11.60158769966078</v>
       </c>
       <c r="R8">
-        <v>2100.407069109699</v>
+        <v>104.414289296947</v>
       </c>
       <c r="S8">
-        <v>0.04442087384204853</v>
+        <v>0.009351732637404509</v>
       </c>
       <c r="T8">
-        <v>0.04442087384204853</v>
+        <v>0.009351732637404509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.4171</v>
       </c>
       <c r="O9">
-        <v>0.1219785887548671</v>
+        <v>0.4904710091781626</v>
       </c>
       <c r="P9">
-        <v>0.121978588754867</v>
+        <v>0.4904710091781627</v>
       </c>
       <c r="Q9">
-        <v>41.74230026363333</v>
+        <v>32.39337069274444</v>
       </c>
       <c r="R9">
-        <v>375.6807023727</v>
+        <v>291.5403362347</v>
       </c>
       <c r="S9">
-        <v>0.007945157550847261</v>
+        <v>0.02611143834664444</v>
       </c>
       <c r="T9">
-        <v>0.00794515755084726</v>
+        <v>0.02611143834664444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.366422</v>
+        <v>1.002254</v>
       </c>
       <c r="N10">
-        <v>7.099265999999998</v>
+        <v>3.006762</v>
       </c>
       <c r="O10">
-        <v>0.1960468288866926</v>
+        <v>0.3338682829228568</v>
       </c>
       <c r="P10">
-        <v>0.1960468288866926</v>
+        <v>0.3338682829228568</v>
       </c>
       <c r="Q10">
-        <v>67.08919721613798</v>
+        <v>22.05047566295933</v>
       </c>
       <c r="R10">
-        <v>603.8027749452418</v>
+        <v>198.454280966634</v>
       </c>
       <c r="S10">
-        <v>0.01276964226876757</v>
+        <v>0.01777430454054319</v>
       </c>
       <c r="T10">
-        <v>0.01276964226876756</v>
+        <v>0.01777430454054319</v>
       </c>
     </row>
   </sheetData>
